--- a/xlsx/Encyclopedia_intext.xlsx
+++ b/xlsx/Encyclopedia_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>Encyclopedia</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>百科 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Encyclopedia</t>
+    <t>百科 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Encyclopedia</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6_(%E4%B9%A6%E7%B1%8D)</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>詞典</t>
+    <t>词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%A9%9E</t>
   </si>
   <si>
-    <t>單詞</t>
+    <t>单词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>事實</t>
+    <t>事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E7%B4%A2%E7%93%A6%C2%B7%E6%8B%89%E4%BC%AF%E9%9B%B7</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>世界歷史</t>
+    <t>世界历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%B4%9B</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BE%9D%E8%A5%BF%E5%A4%9A%E7%A6%84</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AF%B6%E9%91%91</t>
   </si>
   <si>
-    <t>大寶鑑</t>
+    <t>大宝鑑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%BA%BA</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E8%A6%BD</t>
   </si>
   <si>
-    <t>皇覽</t>
+    <t>皇览</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%96%87%E5%B8%9D</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%BD%E8%A9%A2</t>
   </si>
   <si>
-    <t>歐陽詢</t>
+    <t>欧阳询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E6%96%87%E9%A1%9E%E8%81%9A</t>
   </si>
   <si>
-    <t>藝文類聚</t>
+    <t>艺文类聚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9E%E4%B8%96%E5%8D%97</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%A0%85</t>
   </si>
   <si>
-    <t>徐堅</t>
+    <t>徐坚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E5%AD%A6%E8%AE%B0</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%BE%A1%E8%A6%BD</t>
   </si>
   <si>
-    <t>太平御覽</t>
+    <t>太平御览</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%8B</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%87%89%E9%BA%9F</t>
   </si>
   <si>
-    <t>王應麟</t>
+    <t>王应麟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E6%B5%B7</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%A8%82%E5%A4%A7%E5%85%B8</t>
   </si>
   <si>
-    <t>永樂大典</t>
+    <t>永乐大典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%A4%A2%E9%9B%B7</t>
   </si>
   <si>
-    <t>陳夢雷</t>
+    <t>陈梦雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%8A%E5%9C%96%E6%9B%B8%E9%9B%86%E6%88%90</t>
   </si>
   <si>
-    <t>古今圖書集成</t>
+    <t>古今图书集成</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%8D%E6%AD%A3</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E5%BB%B7%E9%8C%AB</t>
   </si>
   <si>
-    <t>蔣廷錫</t>
+    <t>蒋廷锡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%88%9D</t>
@@ -437,31 +437,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E6%BA%90</t>
   </si>
   <si>
-    <t>辭源</t>
+    <t>辞源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>中華百科全書</t>
+    <t>中华百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>中國大百科全書</t>
+    <t>中国大百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%9C%E6%A4%BF%E8%8A%B3</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%90%8D%E9%A1%9E%E8%81%9A%E6%8A%84</t>
   </si>
   <si>
-    <t>和名類聚抄</t>
+    <t>和名类聚抄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%92%E5%9B%8A%E9%92%9E</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BA%8B%E9%A1%9E%E8%8B%91</t>
   </si>
   <si>
-    <t>古事類苑</t>
+    <t>古事类苑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9C%81%E5%A0%82</t>
@@ -539,9 +536,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E6%BC%A2%E4%B8%89%E6%89%8D%E5%9C%96%E6%9C%83</t>
   </si>
   <si>
-    <t>和漢三才圖會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E4%B9%8B%E9%91%B0</t>
   </si>
   <si>
-    <t>科學之鑰</t>
+    <t>科学之钥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%AF%9A%E5%85%84%E5%BC%9F%E4%BC%9A%E5%85%B8</t>
@@ -611,9 +605,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6%EF%BC%8C%E6%88%96%E7%A7%91%E5%AD%A6%E3%80%81%E8%89%BA%E6%9C%AF%E5%92%8C%E5%B7%A5%E8%89%BA%E8%AF%A6%E8%A7%A3%E8%AF%8D%E5%85%B8</t>
   </si>
   <si>
@@ -635,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8%EF%BC%9B%E6%88%96%E8%97%9D%E8%A1%93%E8%88%87%E7%A7%91%E5%AD%B8%E9%80%9A%E7%94%A8%E5%AD%97%E5%85%B8</t>
   </si>
   <si>
-    <t>百科全書；或藝術與科學通用字典</t>
+    <t>百科全书；或艺术与科学通用字典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -659,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%BE%85%E5%85%8B%E8%B1%AA%E6%96%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>布羅克豪斯百科全書</t>
+    <t>布罗克豪斯百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%88%E5%A4%B4%E7%99%BE%E7%A7%91%E8%AF%8D%E5%85%B8</t>
@@ -731,9 +722,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%8D%E5%85%B8</t>
   </si>
   <si>
-    <t>词典</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -749,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%B8%96%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>創世神話</t>
+    <t>创世神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E5%92%8C%E7%A9%BA%E9%97%B4</t>
@@ -815,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E5%B0%BC%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>泰德·尼爾森</t>
+    <t>泰德·尼尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%99%BB%E5%A0%A1%E8%AE%A1%E5%88%92</t>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8E%E8%AB%96%E7%BE%A4%E7%B5%84</t>
   </si>
   <si>
-    <t>討論群組</t>
+    <t>讨论群组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E6%B2%B3%E7%B3%BB%E6%BC%AB%E6%B8%B8%E6%8C%87%E5%8D%97</t>
@@ -887,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%AD%A6</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -947,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -3354,7 +3342,7 @@
         <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3380,10 +3368,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3409,10 +3397,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3438,10 +3426,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3467,10 +3455,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3496,10 +3484,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3525,10 +3513,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3554,10 +3542,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3583,10 +3571,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3612,10 +3600,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3641,10 +3629,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3670,10 +3658,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3699,10 +3687,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3728,10 +3716,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3757,10 +3745,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3786,10 +3774,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3815,10 +3803,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3844,10 +3832,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3873,10 +3861,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3902,10 +3890,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3931,10 +3919,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3960,10 +3948,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3989,10 +3977,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4018,10 +4006,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4047,10 +4035,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4076,10 +4064,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4105,10 +4093,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4134,10 +4122,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4192,10 +4180,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4221,10 +4209,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4250,10 +4238,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4279,10 +4267,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4308,10 +4296,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4337,10 +4325,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4366,10 +4354,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4395,10 +4383,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4424,10 +4412,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4453,10 +4441,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4482,10 +4470,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4511,10 +4499,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4540,10 +4528,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4569,10 +4557,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4598,10 +4586,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4627,10 +4615,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4656,10 +4644,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4685,10 +4673,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4714,10 +4702,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4743,10 +4731,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4772,10 +4760,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="G120" t="n">
         <v>13</v>
@@ -4801,10 +4789,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4830,10 +4818,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -4859,10 +4847,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4888,10 +4876,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4917,10 +4905,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4946,10 +4934,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -4975,10 +4963,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5004,10 +4992,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5033,10 +5021,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5062,10 +5050,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5091,10 +5079,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5120,10 +5108,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5149,10 +5137,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5178,10 +5166,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5207,10 +5195,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5236,10 +5224,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5265,10 +5253,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5294,10 +5282,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5323,10 +5311,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5352,10 +5340,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5381,10 +5369,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>8</v>
@@ -5410,10 +5398,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>10</v>
@@ -5439,10 +5427,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -5468,10 +5456,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5497,10 +5485,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5526,10 +5514,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5555,10 +5543,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5584,10 +5572,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5613,10 +5601,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5642,10 +5630,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5671,10 +5659,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5700,10 +5688,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5729,10 +5717,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5758,10 +5746,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5787,10 +5775,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5816,10 +5804,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5845,10 +5833,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
